--- a/config/data/任务成就.xlsx
+++ b/config/data/任务成就.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20400" windowHeight="8490"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -29,6 +29,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>工具会自动读取这一格作为输出的json文件的文件名（不含扩展名）
@@ -43,6 +44,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>指定输出json文件的目录
@@ -57,6 +59,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>1</t>
@@ -85,6 +88,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>TK:</t>
@@ -94,6 +98,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -124,6 +129,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>TK:</t>
@@ -133,6 +139,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -148,6 +155,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>TK:</t>
@@ -157,6 +165,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -172,6 +181,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>TK:</t>
@@ -181,6 +191,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -196,6 +207,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>TK:</t>
@@ -205,6 +217,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -220,6 +233,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>TK:</t>
@@ -229,6 +243,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -244,6 +259,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>TK:</t>
@@ -253,6 +269,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -294,6 +311,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>TK:</t>
@@ -303,6 +321,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -345,6 +364,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>TK:</t>
@@ -354,6 +374,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -536,34 +557,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -574,9 +571,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1042,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1310,9 +1319,9 @@
         <v>30001</v>
       </c>
       <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
         <v>60</v>
       </c>
       <c r="K12">
@@ -1753,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="O37" s="9">
-        <v>60000</v>
+        <v>61000</v>
       </c>
     </row>
     <row r="38" spans="2:15">
@@ -1770,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="O38" s="9">
-        <v>60001</v>
+        <v>61001</v>
       </c>
     </row>
   </sheetData>

--- a/config/data/任务成就.xlsx
+++ b/config/data/任务成就.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20400" windowHeight="8490"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -20,6 +20,7 @@
   <authors>
     <author>maliu</author>
     <author>TK</author>
+    <author>barry</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0">
@@ -431,6 +432,40 @@
           </rPr>
           <t xml:space="preserve">
 奖励物品</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P3" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>barry:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>任务描述</t>
         </r>
       </text>
     </comment>
@@ -439,7 +474,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>comment</t>
   </si>
@@ -476,11 +511,246 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>dayCanNum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>forNum</t>
+    <r>
+      <t>reward</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seedLv1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seedLv2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seedLv3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seedLv4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seedLv5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机60个神器种子,每天可完成1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机60个机甲种子,每天可完成1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机60个神兽种子,每天可完成1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机60个植物种子,每天可完成1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>收获随机1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个神器种子,可完成1次</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机5000个神器种子,可完成1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机10000个神器种子,可完成1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机50000个神器种子,可完成1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机100000个神器种子,可完成1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>收获随机1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个机甲种子,可完成1次</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机5000个机甲种子,可完成1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机50000个机甲种子,可完成1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机100000个机甲种子,可完成1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>收获随机1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个神兽种子,可完成1次</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机5000个神兽种子,可完成1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机10000个神兽种子,可完成1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机50000个神兽种子,可完成1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机100000个神兽种子,可完成1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>收获随机1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个植物种子,可完成1次</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机5000个植物种子,可完成1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机10000个植物种子,可完成1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机50000个植物种子,可完成1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机100000个植物种子,可完成1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得60个战星,每天可完成1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获1-5级植物种子各一个,每天可完成5次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获1-5级神兽种子各一个,每天可完成5次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获1-5级机甲种子各一个,每天可完成5次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获1-5级神器种子各一个,每天可完成5次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>获得60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个战星,可完成1次</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得3000个战星,可完成1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得9000个战星,可完成1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得18000个战星,可完成1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得36000个战星,可完成1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得10个战舰零件,可完成1次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -509,39 +779,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>reward</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>3</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>seedLv1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seedLv2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seedLv3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seedLv4</t>
+    <t>dayCanNum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>forNum</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -549,7 +796,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>seedLv5</t>
+    <t>收获随机10000个机甲种子,可完成1次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -557,7 +804,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -589,6 +836,19 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -672,7 +932,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -701,6 +961,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1049,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1067,8 +1330,8 @@
     <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1076,14 +1339,14 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="10"/>
+    <row r="2" spans="1:16">
+      <c r="A2" s="11"/>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1">
+    <row r="3" spans="1:16" s="1" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1094,43 +1357,46 @@
         <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="I3" s="5" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="O3" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>49</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="B4">
         <v>10001</v>
       </c>
@@ -1146,8 +1412,11 @@
       <c r="M4">
         <v>3000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="B5">
         <v>10002</v>
       </c>
@@ -1163,8 +1432,11 @@
       <c r="M5">
         <v>3000000</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="B6">
         <v>10003</v>
       </c>
@@ -1180,8 +1452,11 @@
       <c r="M6">
         <v>3000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="B7">
         <v>10004</v>
       </c>
@@ -1197,8 +1472,11 @@
       <c r="M7">
         <v>3000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="B8">
         <v>10005</v>
       </c>
@@ -1226,8 +1504,11 @@
       <c r="M8">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="B9">
         <v>10006</v>
       </c>
@@ -1255,8 +1536,11 @@
       <c r="M9">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="B10">
         <v>10007</v>
       </c>
@@ -1284,8 +1568,11 @@
       <c r="M10">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="B11">
         <v>10008</v>
       </c>
@@ -1313,8 +1600,11 @@
       <c r="M11">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="B12">
         <v>30001</v>
       </c>
@@ -1330,15 +1620,18 @@
       <c r="N12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="B13">
         <v>20001</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="9">
         <v>1000</v>
       </c>
       <c r="L13">
@@ -1348,8 +1641,11 @@
         <v>300</v>
       </c>
       <c r="O13" s="9"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="B14">
         <v>20002</v>
       </c>
@@ -1365,8 +1661,11 @@
       <c r="M14">
         <v>30000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="B15">
         <v>20003</v>
       </c>
@@ -1380,10 +1679,13 @@
         <v>1</v>
       </c>
       <c r="O15" s="9">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>61000</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="B16">
         <v>20004</v>
       </c>
@@ -1399,8 +1701,11 @@
       <c r="N16">
         <v>1000</v>
       </c>
-    </row>
-    <row r="17" spans="2:15">
+      <c r="P16" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
       <c r="B17">
         <v>20005</v>
       </c>
@@ -1414,10 +1719,13 @@
         <v>1</v>
       </c>
       <c r="O17" s="9">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15">
+        <v>61000</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
       <c r="B18">
         <v>20006</v>
       </c>
@@ -1434,8 +1742,11 @@
         <v>300</v>
       </c>
       <c r="O18" s="9"/>
-    </row>
-    <row r="19" spans="2:15">
+      <c r="P18" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
       <c r="B19">
         <v>20007</v>
       </c>
@@ -1451,8 +1762,11 @@
       <c r="M19">
         <v>30000000</v>
       </c>
-    </row>
-    <row r="20" spans="2:15">
+      <c r="P19" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
       <c r="B20">
         <v>20008</v>
       </c>
@@ -1465,14 +1779,14 @@
       <c r="L20">
         <v>1</v>
       </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
       <c r="O20" s="9">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15">
+        <v>61000</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
       <c r="B21">
         <v>20009</v>
       </c>
@@ -1488,8 +1802,11 @@
       <c r="N21">
         <v>1000</v>
       </c>
-    </row>
-    <row r="22" spans="2:15">
+      <c r="P21" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
       <c r="B22">
         <v>20010</v>
       </c>
@@ -1503,10 +1820,13 @@
         <v>1</v>
       </c>
       <c r="O22" s="9">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15">
+        <v>61000</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
       <c r="B23">
         <v>20011</v>
       </c>
@@ -1523,8 +1843,11 @@
         <v>300</v>
       </c>
       <c r="O23" s="9"/>
-    </row>
-    <row r="24" spans="2:15">
+      <c r="P23" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
       <c r="B24">
         <v>20012</v>
       </c>
@@ -1540,8 +1863,11 @@
       <c r="M24" s="9">
         <v>30000000</v>
       </c>
-    </row>
-    <row r="25" spans="2:15">
+      <c r="P24" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
       <c r="B25">
         <v>20013</v>
       </c>
@@ -1555,10 +1881,13 @@
         <v>1</v>
       </c>
       <c r="O25" s="9">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15">
+        <v>61000</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
       <c r="B26">
         <v>20014</v>
       </c>
@@ -1574,8 +1903,11 @@
       <c r="N26">
         <v>1000</v>
       </c>
-    </row>
-    <row r="27" spans="2:15">
+      <c r="P26" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
       <c r="B27">
         <v>20015</v>
       </c>
@@ -1589,10 +1921,13 @@
         <v>1</v>
       </c>
       <c r="O27" s="9">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15">
+        <v>61000</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
       <c r="B28">
         <v>20016</v>
       </c>
@@ -1609,8 +1944,11 @@
         <v>300</v>
       </c>
       <c r="O28" s="9"/>
-    </row>
-    <row r="29" spans="2:15">
+      <c r="P28" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
       <c r="B29">
         <v>20017</v>
       </c>
@@ -1626,8 +1964,11 @@
       <c r="M29" s="9">
         <v>30000000</v>
       </c>
-    </row>
-    <row r="30" spans="2:15">
+      <c r="P29" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
       <c r="B30">
         <v>20018</v>
       </c>
@@ -1641,10 +1982,13 @@
         <v>1</v>
       </c>
       <c r="O30" s="9">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15">
+        <v>61000</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
       <c r="B31">
         <v>20019</v>
       </c>
@@ -1660,8 +2004,11 @@
       <c r="N31">
         <v>1000</v>
       </c>
-    </row>
-    <row r="32" spans="2:15">
+      <c r="P31" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
       <c r="B32">
         <v>20020</v>
       </c>
@@ -1675,10 +2022,13 @@
         <v>1</v>
       </c>
       <c r="O32" s="9">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15">
+        <v>61000</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16">
       <c r="B33">
         <v>40001</v>
       </c>
@@ -1694,8 +2044,11 @@
       <c r="N33">
         <v>300</v>
       </c>
-    </row>
-    <row r="34" spans="2:15">
+      <c r="P33" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16">
       <c r="B34">
         <v>40002</v>
       </c>
@@ -1712,8 +2065,11 @@
         <v>30000000</v>
       </c>
       <c r="O34" s="9"/>
-    </row>
-    <row r="35" spans="2:15">
+      <c r="P34" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16">
       <c r="B35">
         <v>40003</v>
       </c>
@@ -1727,10 +2083,13 @@
         <v>1</v>
       </c>
       <c r="O35" s="9">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15">
+        <v>61000</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16">
       <c r="B36">
         <v>40004</v>
       </c>
@@ -1747,8 +2106,11 @@
         <v>1000</v>
       </c>
       <c r="O36" s="9"/>
-    </row>
-    <row r="37" spans="2:15">
+      <c r="P36" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16">
       <c r="B37">
         <v>40005</v>
       </c>
@@ -1764,8 +2126,11 @@
       <c r="O37" s="9">
         <v>61000</v>
       </c>
-    </row>
-    <row r="38" spans="2:15">
+      <c r="P37" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16">
       <c r="B38">
         <v>100000</v>
       </c>
@@ -1780,6 +2145,9 @@
       </c>
       <c r="O38" s="9">
         <v>61001</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/config/data/任务成就.xlsx
+++ b/config/data/任务成就.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20400" windowHeight="8490"/>
@@ -566,6 +566,213 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>收获1-5级植物种子各一个,每天可完成5次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获1-5级神兽种子各一个,每天可完成5次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获1-5级机甲种子各一个,每天可完成5次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获1-5级神器种子各一个,每天可完成5次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>reward</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>reward</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dayCanNum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>forNum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seedLvN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得10个战舰零件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得36000个战星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得18000个战星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得9000个战星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得3000个战星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>获得60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个战星</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机100000个植物种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机50000个植物种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机10000个植物种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机5000个植物种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>收获随机1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个植物种子</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机100000个神兽种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机50000个神兽种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机10000个神兽种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机5000个神兽种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>收获随机1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个神兽种子</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机100000个机甲种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机50000个机甲种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机10000个机甲种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机5000个机甲种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>收获随机1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个机甲种子</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机100000个神器种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机50000个神器种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机10000个神器种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机5000个神器种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>收获随机1</t>
     </r>
@@ -584,227 +791,20 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>个神器种子,可完成1次</t>
+      <t>个神器种子</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收获随机5000个神器种子,可完成1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机10000个神器种子,可完成1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机50000个神器种子,可完成1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机100000个神器种子,可完成1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>收获随机1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个机甲种子,可完成1次</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机5000个机甲种子,可完成1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机50000个机甲种子,可完成1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机100000个机甲种子,可完成1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>收获随机1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个神兽种子,可完成1次</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机5000个神兽种子,可完成1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机10000个神兽种子,可完成1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机50000个神兽种子,可完成1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机100000个神兽种子,可完成1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>收获随机1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个植物种子,可完成1次</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机5000个植物种子,可完成1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机10000个植物种子,可完成1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机50000个植物种子,可完成1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机100000个植物种子,可完成1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>获得60个战星,每天可完成1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获1-5级植物种子各一个,每天可完成5次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获1-5级神兽种子各一个,每天可完成5次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获1-5级机甲种子各一个,每天可完成5次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获1-5级神器种子各一个,每天可完成5次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>获得60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个战星,可完成1次</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得3000个战星,可完成1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得9000个战星,可完成1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得18000个战星,可完成1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得36000个战星,可完成1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得10个战舰零件,可完成1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>reward</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>reward</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dayCanNum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>forNum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seedLvN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机10000个机甲种子,可完成1次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1311,14 +1311,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
@@ -1330,7 +1330,7 @@
     <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1339,14 +1339,14 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1">
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1372,56 +1372,56 @@
         <v>12</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B4">
+        <v>30001</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>60</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B5">
         <v>10001</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>60</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>3000000</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="B5">
-        <v>10002</v>
-      </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>60</v>
@@ -1433,15 +1433,15 @@
         <v>3000000</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B6">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>60</v>
@@ -1453,15 +1453,15 @@
         <v>3000000</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B7">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>60</v>
@@ -1473,47 +1473,35 @@
         <v>3000000</v>
       </c>
       <c r="P7" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>10004</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>60</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3000000</v>
+      </c>
+      <c r="P8" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="B8">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B9">
         <v>10005</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="M8">
-        <v>10000000</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="B9">
-        <v>10006</v>
-      </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1536,16 +1524,16 @@
       <c r="M9">
         <v>10000000</v>
       </c>
-      <c r="P9" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B10">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1569,15 +1557,15 @@
         <v>10000000</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B11">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1601,553 +1589,565 @@
         <v>10000000</v>
       </c>
       <c r="P11" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>10008</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>10000000</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>100000</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="O13" s="9">
+        <v>61001</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>40001</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>600</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>300</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>40002</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>3000</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>30000000</v>
+      </c>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>40003</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>9000</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="O16" s="9">
+        <v>61000</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>40004</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>18000</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1000</v>
+      </c>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>40005</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>36000</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="O18" s="9">
+        <v>61000</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>20001</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="9">
+        <v>1000</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>300</v>
+      </c>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <v>20002</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>5000</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>30000000</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>20003</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>10000</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="O21" s="9">
+        <v>61000</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>20004</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>50000</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1000</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <v>20005</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>100000</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="O23" s="9">
+        <v>61000</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <v>20006</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>1000</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>300</v>
+      </c>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B25">
+        <v>20007</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>5000</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>30000000</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B26">
+        <v>20008</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>10000</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="O26" s="9">
+        <v>61000</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B27">
+        <v>20009</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>50000</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1000</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B28">
+        <v>20010</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>100000</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="O28" s="9">
+        <v>61000</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B29">
+        <v>20011</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>1000</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>300</v>
+      </c>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B30">
+        <v>20012</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>5000</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B31">
+        <v>20013</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>10000</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="O31" s="9">
+        <v>61000</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B32">
+        <v>20014</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>50000</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1000</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B33">
+        <v>20015</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>100000</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="O33" s="9">
+        <v>61000</v>
+      </c>
+      <c r="P33" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
-      <c r="B12">
-        <v>30001</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="J12">
-        <v>60</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>100</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="B13">
-        <v>20001</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="I13" s="9">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B34">
+        <v>20016</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="I34">
         <v>1000</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="N13">
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="N34">
         <v>300</v>
-      </c>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="B14">
-        <v>20002</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>5000</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>30000000</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="B15">
-        <v>20003</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>10000</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="O15" s="9">
-        <v>61000</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="B16">
-        <v>20004</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>50000</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1000</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16">
-      <c r="B17">
-        <v>20005</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>100000</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="O17" s="9">
-        <v>61000</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16">
-      <c r="B18">
-        <v>20006</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>1000</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>300</v>
-      </c>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16">
-      <c r="B19">
-        <v>20007</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>5000</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>30000000</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16">
-      <c r="B20">
-        <v>20008</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>10000</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="O20" s="9">
-        <v>61000</v>
-      </c>
-      <c r="P20" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16">
-      <c r="B21">
-        <v>20009</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>50000</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>1000</v>
-      </c>
-      <c r="P21" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16">
-      <c r="B22">
-        <v>20010</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="I22">
-        <v>100000</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="O22" s="9">
-        <v>61000</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16">
-      <c r="B23">
-        <v>20011</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="I23">
-        <v>1000</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>300</v>
-      </c>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16">
-      <c r="B24">
-        <v>20012</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="I24">
-        <v>5000</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24" s="9">
-        <v>30000000</v>
-      </c>
-      <c r="P24" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16">
-      <c r="B25">
-        <v>20013</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="I25">
-        <v>10000</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="O25" s="9">
-        <v>61000</v>
-      </c>
-      <c r="P25" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16">
-      <c r="B26">
-        <v>20014</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="I26">
-        <v>50000</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>1000</v>
-      </c>
-      <c r="P26" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16">
-      <c r="B27">
-        <v>20015</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="I27">
-        <v>100000</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="O27" s="9">
-        <v>61000</v>
-      </c>
-      <c r="P27" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16">
-      <c r="B28">
-        <v>20016</v>
-      </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
-      <c r="I28">
-        <v>1000</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>300</v>
-      </c>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16">
-      <c r="B29">
-        <v>20017</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="I29">
-        <v>5000</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29" s="9">
-        <v>30000000</v>
-      </c>
-      <c r="P29" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16">
-      <c r="B30">
-        <v>20018</v>
-      </c>
-      <c r="C30">
-        <v>4</v>
-      </c>
-      <c r="I30">
-        <v>10000</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="O30" s="9">
-        <v>61000</v>
-      </c>
-      <c r="P30" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16">
-      <c r="B31">
-        <v>20019</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-      <c r="I31">
-        <v>50000</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>1000</v>
-      </c>
-      <c r="P31" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16">
-      <c r="B32">
-        <v>20020</v>
-      </c>
-      <c r="C32">
-        <v>4</v>
-      </c>
-      <c r="I32">
-        <v>100000</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="O32" s="9">
-        <v>61000</v>
-      </c>
-      <c r="P32" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16">
-      <c r="B33">
-        <v>40001</v>
-      </c>
-      <c r="C33">
-        <v>5</v>
-      </c>
-      <c r="J33">
-        <v>600</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <v>300</v>
-      </c>
-      <c r="P33" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16">
-      <c r="B34">
-        <v>40002</v>
-      </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-      <c r="J34">
-        <v>3000</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>30000000</v>
       </c>
       <c r="O34" s="9"/>
       <c r="P34" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B35">
-        <v>40003</v>
+        <v>20017</v>
       </c>
       <c r="C35">
-        <v>5</v>
-      </c>
-      <c r="J35">
-        <v>9000</v>
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>5000</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
-      <c r="O35" s="9">
+      <c r="M35" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B36">
+        <v>20018</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>10000</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="O36" s="9">
         <v>61000</v>
       </c>
-      <c r="P35" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16">
-      <c r="B36">
-        <v>40004</v>
-      </c>
-      <c r="C36">
-        <v>5</v>
-      </c>
-      <c r="J36">
-        <v>18000</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="N36">
+      <c r="P36" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B37">
+        <v>20019</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>50000</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="N37">
         <v>1000</v>
       </c>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16">
-      <c r="B37">
-        <v>40005</v>
-      </c>
-      <c r="C37">
-        <v>5</v>
-      </c>
-      <c r="J37">
-        <v>36000</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="O37" s="9">
+      <c r="P37" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B38">
+        <v>20020</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>100000</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="O38" s="9">
         <v>61000</v>
       </c>
-      <c r="P37" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16">
-      <c r="B38">
-        <v>100000</v>
-      </c>
-      <c r="C38">
-        <v>100</v>
-      </c>
-      <c r="J38">
-        <v>10</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="O38" s="9">
-        <v>61001</v>
-      </c>
       <c r="P38" s="9" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2163,12 +2163,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2178,12 +2178,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/config/data/任务成就.xlsx
+++ b/config/data/任务成就.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20400" windowHeight="8490"/>
@@ -624,10 +624,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>获得10个战舰零件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>获得36000个战星</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -799,12 +795,16 @@
     <t>获得60个战星,每天可完成1次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>获得100个战舰零件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1311,14 +1311,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
@@ -1330,7 +1330,7 @@
     <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1339,14 +1339,14 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16">
       <c r="A2" s="11"/>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" s="1" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16">
       <c r="B4">
         <v>30001</v>
       </c>
@@ -1413,10 +1413,10 @@
         <v>100</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="B5">
         <v>10001</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="B6">
         <v>10002</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="B7">
         <v>10003</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="B8">
         <v>10004</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="B9">
         <v>10005</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16">
       <c r="B10">
         <v>10006</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16">
       <c r="B11">
         <v>10007</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="B12">
         <v>10008</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="B13">
         <v>100000</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>100</v>
       </c>
       <c r="J13">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -1641,10 +1641,10 @@
         <v>61001</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="B14">
         <v>40001</v>
       </c>
@@ -1661,10 +1661,10 @@
         <v>300</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="B15">
         <v>40002</v>
       </c>
@@ -1682,10 +1682,10 @@
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="B16">
         <v>40003</v>
       </c>
@@ -1702,10 +1702,10 @@
         <v>61000</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
       <c r="B17">
         <v>40004</v>
       </c>
@@ -1723,10 +1723,10 @@
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
       <c r="B18">
         <v>40005</v>
       </c>
@@ -1743,10 +1743,10 @@
         <v>61000</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
       <c r="B19">
         <v>20001</v>
       </c>
@@ -1764,10 +1764,10 @@
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
       <c r="B20">
         <v>20002</v>
       </c>
@@ -1784,10 +1784,10 @@
         <v>30000000</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
       <c r="B21">
         <v>20003</v>
       </c>
@@ -1804,10 +1804,10 @@
         <v>61000</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
       <c r="B22">
         <v>20004</v>
       </c>
@@ -1824,10 +1824,10 @@
         <v>1000</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
       <c r="B23">
         <v>20005</v>
       </c>
@@ -1844,10 +1844,10 @@
         <v>61000</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
       <c r="B24">
         <v>20006</v>
       </c>
@@ -1865,10 +1865,10 @@
       </c>
       <c r="O24" s="9"/>
       <c r="P24" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
       <c r="B25">
         <v>20007</v>
       </c>
@@ -1885,10 +1885,10 @@
         <v>30000000</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
       <c r="B26">
         <v>20008</v>
       </c>
@@ -1905,10 +1905,10 @@
         <v>61000</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
       <c r="B27">
         <v>20009</v>
       </c>
@@ -1925,10 +1925,10 @@
         <v>1000</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
       <c r="B28">
         <v>20010</v>
       </c>
@@ -1945,10 +1945,10 @@
         <v>61000</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
       <c r="B29">
         <v>20011</v>
       </c>
@@ -1966,10 +1966,10 @@
       </c>
       <c r="O29" s="9"/>
       <c r="P29" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
       <c r="B30">
         <v>20012</v>
       </c>
@@ -1986,10 +1986,10 @@
         <v>30000000</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
       <c r="B31">
         <v>20013</v>
       </c>
@@ -2006,10 +2006,10 @@
         <v>61000</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
       <c r="B32">
         <v>20014</v>
       </c>
@@ -2026,10 +2026,10 @@
         <v>1000</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16">
       <c r="B33">
         <v>20015</v>
       </c>
@@ -2046,10 +2046,10 @@
         <v>61000</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16">
       <c r="B34">
         <v>20016</v>
       </c>
@@ -2067,10 +2067,10 @@
       </c>
       <c r="O34" s="9"/>
       <c r="P34" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16">
       <c r="B35">
         <v>20017</v>
       </c>
@@ -2087,10 +2087,10 @@
         <v>30000000</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16">
       <c r="B36">
         <v>20018</v>
       </c>
@@ -2107,10 +2107,10 @@
         <v>61000</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16">
       <c r="B37">
         <v>20019</v>
       </c>
@@ -2127,10 +2127,10 @@
         <v>1000</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16">
       <c r="B38">
         <v>20020</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>61000</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2163,12 +2163,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2178,12 +2178,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/config/data/任务成就.xlsx
+++ b/config/data/任务成就.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20400" windowHeight="8490"/>
@@ -803,8 +803,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1311,14 +1311,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
@@ -1330,7 +1330,7 @@
     <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1339,14 +1339,14 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1">
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>30001</v>
       </c>
@@ -1410,13 +1410,13 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>10001</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>10002</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>10003</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>10004</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>10005</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>10006</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>10007</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>10008</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>100000</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>40001</v>
       </c>
@@ -1658,13 +1658,13 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>40002</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>40003</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>40004</v>
       </c>
@@ -1719,14 +1719,14 @@
         <v>1</v>
       </c>
       <c r="N17">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>40005</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>20001</v>
       </c>
@@ -1760,14 +1760,14 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>20002</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>20003</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>20004</v>
       </c>
@@ -1821,13 +1821,13 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="P22" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>20005</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>20006</v>
       </c>
@@ -1861,14 +1861,14 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O24" s="9"/>
       <c r="P24" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B25">
         <v>20007</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B26">
         <v>20008</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B27">
         <v>20009</v>
       </c>
@@ -1922,13 +1922,13 @@
         <v>1</v>
       </c>
       <c r="N27">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="P27" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B28">
         <v>20010</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B29">
         <v>20011</v>
       </c>
@@ -1962,14 +1962,14 @@
         <v>1</v>
       </c>
       <c r="N29">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O29" s="9"/>
       <c r="P29" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B30">
         <v>20012</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B31">
         <v>20013</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B32">
         <v>20014</v>
       </c>
@@ -2023,13 +2023,13 @@
         <v>1</v>
       </c>
       <c r="N32">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="P32" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B33">
         <v>20015</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B34">
         <v>20016</v>
       </c>
@@ -2063,14 +2063,14 @@
         <v>1</v>
       </c>
       <c r="N34">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O34" s="9"/>
       <c r="P34" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B35">
         <v>20017</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B36">
         <v>20018</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B37">
         <v>20019</v>
       </c>
@@ -2124,13 +2124,13 @@
         <v>1</v>
       </c>
       <c r="N37">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="P37" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B38">
         <v>20020</v>
       </c>
@@ -2163,12 +2163,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2178,12 +2178,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/config/data/任务成就.xlsx
+++ b/config/data/任务成就.xlsx
@@ -550,38 +550,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收获随机60个神器种子,每天可完成1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机60个机甲种子,每天可完成1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机60个神兽种子,每天可完成1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机60个植物种子,每天可完成1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获1-5级植物种子各一个,每天可完成5次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获1-5级神兽种子各一个,每天可完成5次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获1-5级机甲种子各一个,每天可完成5次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获1-5级神器种子各一个,每天可完成5次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>reward</t>
     </r>
@@ -663,24 +631,102 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收获随机100000个植物种子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机50000个植物种子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机10000个植物种子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机5000个植物种子</t>
+    <t>获得100个战舰零件</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>收获随机1000</t>
+      <t>收获随机2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个神器种子</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机10000个神器种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机30000个神器种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机90000个神器种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机180000个神器种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>收获随机2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个机甲种子</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机10000个机甲种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机30000个机甲种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机90000个机甲种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机180000个机甲种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>收获随机2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个神兽种子</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机10000个神兽种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机30000个神兽种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机90000个神兽种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机180000个神兽种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>收获随机2000</t>
     </r>
     <r>
       <rPr>
@@ -693,110 +739,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收获随机100000个神兽种子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机50000个神兽种子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机10000个神兽种子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机5000个神兽种子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>收获随机1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个神兽种子</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机100000个机甲种子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机50000个机甲种子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机10000个机甲种子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机5000个机甲种子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>收获随机1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个机甲种子</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机100000个神器种子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机50000个神器种子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机10000个神器种子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收获随机5000个神器种子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>收获随机1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个神器种子</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得60个战星,每天可完成1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得100个战舰零件</t>
+    <t>收获随机10000个植物种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机30000个植物种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机90000个植物种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机180000个植物种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得60个战星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机60个神器种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机60个机甲种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机60个神兽种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获随机60个植物种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获1-5级神器种子各1个,可完成5次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获1-5级机甲种子各1个,可完成5次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获1-5级神兽种子各1个,可完成5次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获1-5级植物种子各1个,可完成5次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1315,7 +1306,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1372,25 +1363,25 @@
         <v>12</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>13</v>
@@ -1413,7 +1404,7 @@
         <v>60</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
@@ -1433,7 +1424,7 @@
         <v>3000000</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
@@ -1453,7 +1444,7 @@
         <v>3000000</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
@@ -1473,7 +1464,7 @@
         <v>3000000</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -1493,7 +1484,7 @@
         <v>3000000</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
@@ -1525,7 +1516,7 @@
         <v>10000000</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
@@ -1557,7 +1548,7 @@
         <v>10000000</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
@@ -1589,7 +1580,7 @@
         <v>10000000</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
@@ -1621,7 +1612,7 @@
         <v>10000000</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
@@ -1641,7 +1632,7 @@
         <v>61001</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
@@ -1661,7 +1652,7 @@
         <v>100</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
@@ -1682,7 +1673,7 @@
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
@@ -1702,7 +1693,7 @@
         <v>61000</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.15">
@@ -1723,7 +1714,7 @@
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.15">
@@ -1743,7 +1734,7 @@
         <v>61000</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.15">
@@ -1753,8 +1744,8 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="I19" s="9">
-        <v>1000</v>
+      <c r="I19">
+        <v>2000</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -1764,7 +1755,7 @@
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="9" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.15">
@@ -1775,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -1784,7 +1775,7 @@
         <v>30000000</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.15">
@@ -1795,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -1804,7 +1795,7 @@
         <v>61000</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.15">
@@ -1815,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="I22">
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -1824,7 +1815,7 @@
         <v>500</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.15">
@@ -1835,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -1844,7 +1835,7 @@
         <v>61000</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.15">
@@ -1855,7 +1846,7 @@
         <v>2</v>
       </c>
       <c r="I24">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -1865,7 +1856,7 @@
       </c>
       <c r="O24" s="9"/>
       <c r="P24" s="9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.15">
@@ -1876,7 +1867,7 @@
         <v>2</v>
       </c>
       <c r="I25">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -1885,7 +1876,7 @@
         <v>30000000</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.15">
@@ -1896,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="I26">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -1905,7 +1896,7 @@
         <v>61000</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.15">
@@ -1916,7 +1907,7 @@
         <v>2</v>
       </c>
       <c r="I27">
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -1925,7 +1916,7 @@
         <v>500</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.15">
@@ -1936,7 +1927,7 @@
         <v>2</v>
       </c>
       <c r="I28">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -1945,7 +1936,7 @@
         <v>61000</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.15">
@@ -1956,7 +1947,7 @@
         <v>3</v>
       </c>
       <c r="I29">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -1966,7 +1957,7 @@
       </c>
       <c r="O29" s="9"/>
       <c r="P29" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.15">
@@ -1977,7 +1968,7 @@
         <v>3</v>
       </c>
       <c r="I30">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -1986,7 +1977,7 @@
         <v>30000000</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.15">
@@ -1997,7 +1988,7 @@
         <v>3</v>
       </c>
       <c r="I31">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -2006,7 +1997,7 @@
         <v>61000</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.15">
@@ -2017,7 +2008,7 @@
         <v>3</v>
       </c>
       <c r="I32">
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -2037,7 +2028,7 @@
         <v>3</v>
       </c>
       <c r="I33">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -2046,7 +2037,7 @@
         <v>61000</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.15">
@@ -2057,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="I34">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -2067,7 +2058,7 @@
       </c>
       <c r="O34" s="9"/>
       <c r="P34" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.15">
@@ -2078,7 +2069,7 @@
         <v>4</v>
       </c>
       <c r="I35">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -2087,7 +2078,7 @@
         <v>30000000</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.15">
@@ -2098,7 +2089,7 @@
         <v>4</v>
       </c>
       <c r="I36">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -2107,7 +2098,7 @@
         <v>61000</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.15">
@@ -2118,7 +2109,7 @@
         <v>4</v>
       </c>
       <c r="I37">
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -2127,7 +2118,7 @@
         <v>500</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.15">
@@ -2138,7 +2129,7 @@
         <v>4</v>
       </c>
       <c r="I38">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -2147,7 +2138,7 @@
         <v>61000</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
